--- a/step3_noise_generation/error_reports_xlsx/insertion_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/insertion_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>materieals</t>
+          <t>provisioneal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>provisional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Research is conducted in a wide variety of fields, including exobiology, astronomy, physical sciences, materieals science, space weather, meteorology, and human research including space medicine and the life sciences.</t>
+          <t>If Congress, on the other hand, votes to approve the provisioneal measure, it becomes an actual law, with changes decided by the legislative branch.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Research is conducted in a wide variety of fields, including exobiology, astronomy, physical sciences, materials science, space weather, meteorology, and human research including space medicine and the life sciences.</t>
+          <t>If Congress, on the other hand, votes to approve the provisional measure, it becomes an actual law, with changes decided by the legislative branch.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>reeported</t>
+          <t>espite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>spite</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>In 2023, YouTube's advertising revenue totaled $31.7 billion, a 2% increase from the $31.1 billion reeported in 2022.</t>
+          <t>Etymologically, the term derives from Latin literatura/litteratura, "learning, writing, grammar," originally "writing formed with letters," from litera/littera, "letter." In espite of this, the term has also been applied to spoken or sung texts.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>In 2023, YouTube's advertising revenue totaled $31.7 billion, a 2% increase from the $31.1 billion reported in 2022.</t>
+          <t>Etymologically, the term derives from Latin literatura/litteratura, "learning, writing, grammar," originally "writing formed with letters," from litera/littera, "letter." In spite of this, the term has also been applied to spoken or sung texts.</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philcosophy</t>
+          <t>decdlaration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>philosophy</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The word philcosophy comes from the Ancient Greek words φίλος (philos) 'love' and σοφία (sophia) 'wisdom'.</t>
+          <t>Faced with an imminent Allied invasion, the prospect of further atomic bombings, and a Soviet decdlaration of war and invasion of Manchuria, Japan announced its unconditional surrender on 15 August, and signed a surrender document on 2 September 1945.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The word philosophy comes from the Ancient Greek words φίλος (philos) 'love' and σοφία (sophia) 'wisdom'.</t>
+          <t>Faced with an imminent Allied invasion, the prospect of further atomic bombings, and a Soviet declaration of war and invasion of Manchuria, Japan announced its unconditional surrender on 15 August, and signed a surrender document on 2 September 1945.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>binterest</t>
+          <t>thbere</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>there</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thomas Aquinas, the leading theologian of the Catholic Church, argued that the charging of binterest is wrong because it amounts to "double charging", charging for both the thing and the use of the thing.</t>
+          <t>From 1991, thbere was a sharp increase in their usage.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thomas Aquinas, the leading theologian of the Catholic Church, argued that the charging of interest is wrong because it amounts to "double charging", charging for both the thing and the use of the thing.</t>
+          <t>From 1991, there was a sharp increase in their usage.</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anthropolocgy</t>
+          <t>prodbuces</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>anthropology</t>
+          <t>produces</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The abstract noun anthropolocgy is first attested in reference to history.</t>
+          <t>The FP Group also prodbuces FP Events, Foreign Policy's events division, launched in 2012.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The abstract noun anthropology is first attested in reference to history.</t>
+          <t>The FP Group also produces FP Events, Foreign Policy's events division, launched in 2012.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>treands</t>
+          <t>contrbol</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>trends</t>
+          <t>control</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>He was keenly aware of modernist treands in art and, while back with his parents, took up painting in 1881.</t>
+          <t>Scotland, Wales and Northern Ireland have their own governments and parliaments which contrbol various devolved matters.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>He was keenly aware of modernist trends in art and, while back with his parents, took up painting in 1881.</t>
+          <t>Scotland, Wales and Northern Ireland have their own governments and parliaments which control various devolved matters.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>faoundation</t>
+          <t>theicr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>their</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The University of Oxford's faoundation date is unknown.</t>
+          <t>The Article 4 declares the immovability of the founding principles of the Republic defined in the first three Articles and bans any proposals for theicr modification.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The University of Oxford's foundation date is unknown.</t>
+          <t>The Article 4 declares the immovability of the founding principles of the Republic defined in the first three Articles and bans any proposals for their modification.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iantroduced</t>
+          <t>policdy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>introduced</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Athenian democratic elections, where all citizens could hold public office, were not iantroduced for another 247 years, until the reforms of Cleisthenes.</t>
+          <t>Loans or grants for specific projects are often linked to wider policdy changes in the sector or the country's economy as a whole.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Athenian democratic elections, where all citizens could hold public office, were not introduced for another 247 years, until the reforms of Cleisthenes.</t>
+          <t>Loans or grants for specific projects are often linked to wider policy changes in the sector or the country's economy as a whole.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cinclude</t>
+          <t>arendering</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>rendering</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>These cinclude ocean heating, ocean acidification and sea level rise.</t>
+          <t>The official English arendering is "Prime Minister".</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>These include ocean heating, ocean acidification and sea level rise.</t>
+          <t>The official English rendering is "Prime Minister".</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>caolleges</t>
+          <t>aMediterranean</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>colleges</t>
+          <t>Mediterranean</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Undergraduate teaching at the university consists of lectures, small-group tutorials at the caolleges and halls, seminars, laboratory work and tutorials provided by the central university faculties and departments.</t>
+          <t>It is the capital of the Gaziantep Province, in the westernmost part of Turkey's Southeastern Anatolia Region and partially in the aMediterranean Region.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Undergraduate teaching at the university consists of lectures, small-group tutorials at the colleges and halls, seminars, laboratory work and tutorials provided by the central university faculties and departments.</t>
+          <t>It is the capital of the Gaziantep Province, in the westernmost part of Turkey's Southeastern Anatolia Region and partially in the Mediterranean Region.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bbetween</t>
+          <t>commcand</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>command</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Certain ancient disputes were also factional, like the Nika riots bbetween two chariot racing factions at the Hippodrome of Constantinople.</t>
+          <t>The commcand is available on most Unix-like systems.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Certain ancient disputes were also factional, like the Nika riots between two chariot racing factions at the Hippodrome of Constantinople.</t>
+          <t>The command is available on most Unix-like systems.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eventuallby</t>
+          <t>othderwise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eventually</t>
+          <t>otherwise</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>These two previously politically distinct regions came under control of the Roman Empire in the second century BC, eventuallby becoming the core of the Roman Byzantine Empire.</t>
+          <t>In an elective monarchy, the monarch is elected but othderwise serves as any other monarch.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>These two previously politically distinct regions came under control of the Roman Empire in the second century BC, eventually becoming the core of the Roman Byzantine Empire.</t>
+          <t>In an elective monarchy, the monarch is elected but otherwise serves as any other monarch.</t>
         </is>
       </c>
     </row>
@@ -780,22 +780,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>disastroubs</t>
+          <t>upholdinag</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>disastrous</t>
+          <t>upholding</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>However, following the disastroubs Balkan Wars, the CUP became increasingly radicalized and nationalistic, leading a coup d'état in 1913 that established a dictatorship.</t>
+          <t>Thus, conservatives from different parts of the world, each upholdinag their respective traditions, may disagree on a wide range of issues.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>However, following the disastrous Balkan Wars, the CUP became increasingly radicalized and nationalistic, leading a coup d'état in 1913 that established a dictatorship.</t>
+          <t>Thus, conservatives from different parts of the world, each upholding their respective traditions, may disagree on a wide range of issues.</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chearacterised</t>
+          <t>bmeans</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>characterised</t>
+          <t>means</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>His oeuvre includes landscapes, still lifes, portraits, and self-portraits, most of which are chearacterised by bold colours and dramatic brushwork that contributed to the rise of expressionism in modern art.</t>
+          <t>With the evolution of the digital age, new bmeans of communication emerged.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>His oeuvre includes landscapes, still lifes, portraits, and self-portraits, most of which are characterised by bold colours and dramatic brushwork that contributed to the rise of expressionism in modern art.</t>
+          <t>With the evolution of the digital age, new means of communication emerged.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Attaalis</t>
+          <t>translationes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Attalis</t>
+          <t>translations</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Attaleia was also the name of a festival at Delphi and Attaalis (Greek: Ἀτταλίς) was the name of an old Greek tribe at Athens.</t>
+          <t>However, apart from the title, modern translationes are generally used.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Attaleia was also the name of a festival at Delphi and Attalis (Greek: Ἀτταλίς) was the name of an old Greek tribe at Athens.</t>
+          <t>However, apart from the title, modern translations are generally used.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>whiech</t>
+          <t>Turkeey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>That month, Germany launched a spring offensive in the west, whiech despite initial successes left the German Army exhausted and demoralised.</t>
+          <t>In support of the United Nations, Turkeey contributed personnel to the Korean War in 1950 and joined NATO in 1952.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>That month, Germany launched a spring offensive in the west, which despite initial successes left the German Army exhausted and demoralised.</t>
+          <t>In support of the United Nations, Turkey contributed personnel to the Korean War in 1950 and joined NATO in 1952.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jurisedictions</t>
+          <t>Legiselative</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jurisdictions</t>
+          <t>Legislative</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Likewise, in jurisedictions where social welfare services are guaranteed, citizens have legal claim rights to be provided with those services.</t>
+          <t>Legiselative power is vested in the Grand National Assembly.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Likewise, in jurisdictions where social welfare services are guaranteed, citizens have legal claim rights to be provided with those services.</t>
+          <t>Legislative power is vested in the Grand National Assembly.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>necurobiological</t>
+          <t>heabted</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>neurobiological</t>
+          <t>heated</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Others explore the physiological and necurobiological processes that underlie cognitive functions and behaviors.</t>
+          <t>Beneath the lithosphere lies the mantle which is heabted by the decay of radioactive elements.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Others explore the physiological and neurobiological processes that underlie cognitive functions and behaviors.</t>
+          <t>Beneath the lithosphere lies the mantle which is heated by the decay of radioactive elements.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>univaersity</t>
+          <t>internationeal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>international</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Undergraduate teaching at Cambridge is centred on weekly small-group supervisions in the colleges with lectures, seminars, laboratory work, and occasionally further supervision provided by the central univaersity faculties and departments.</t>
+          <t>A great power, the UK is part of numerous internationeal organisations.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Undergraduate teaching at Cambridge is centred on weekly small-group supervisions in the colleges with lectures, seminars, laboratory work, and occasionally further supervision provided by the central university faculties and departments.</t>
+          <t>A great power, the UK is part of numerous international organisations.</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>norbms</t>
+          <t>univcersity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>norms</t>
+          <t>university</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mos Maiorum was a set of rules of conduct based on social norbms created over the years by predecessors.</t>
+          <t>There is evidence of teaching as early as 1096, making it the oldest univcersity in the English-speaking world and the world's second-oldest university in continuous operation.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mos Maiorum was a set of rules of conduct based on social norms created over the years by predecessors.</t>
+          <t>There is evidence of teaching as early as 1096, making it the oldest university in the English-speaking world and the world's second-oldest university in continuous operation.</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Launchecd</t>
+          <t>academicc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Launched</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Launchecd in 2007, nearly a decade after Netflix, Inc.</t>
+          <t>Psychology is an academicc discipline of immense scope, crossing the boundaries between the natural and social sciences.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Launched in 2007, nearly a decade after Netflix, Inc.</t>
+          <t>Psychology is an academic discipline of immense scope, crossing the boundaries between the natural and social sciences.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Orgabnization</t>
+          <t>ldimits</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>limits</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>On 10 June 2005, the Oromo Peoples' Democratic Orgabnization (OPDO), part of the ruling EPRDF coalition, officially announced plans to move the regional capital back to Addis Ababa.</t>
+          <t>The term ldimits were abolished in 2018.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>On 10 June 2005, the Oromo Peoples' Democratic Organization (OPDO), part of the ruling EPRDF coalition, officially announced plans to move the regional capital back to Addis Ababa.</t>
+          <t>The term limits were abolished in 2018.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cdhild</t>
+          <t>eperiod</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>period</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The second cdhild of Thomas Lincoln and Nancy Hanks Lincoln, he was a descendant of Samuel Lincoln, an Englishman who migrated to Massachusetts in 1638, and of the Harrison family of Virginia.</t>
+          <t>Van Gogh spent time in psychiatric hospitals, including a eperiod at Saint-Rémy.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The second child of Thomas Lincoln and Nancy Hanks Lincoln, he was a descendant of Samuel Lincoln, an Englishman who migrated to Massachusetts in 1638, and of the Harrison family of Virginia.</t>
+          <t>Van Gogh spent time in psychiatric hospitals, including a period at Saint-Rémy.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>agrbee</t>
+          <t>cwhich</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Robinson agrbee with the analysis presented by North.</t>
+          <t>The "offense principle" is also used to justify speech limitations, describing the restriction on forms of expression deemed offensive to society, considering factors such as extent, duration, motives of the speaker, and ease with cwhich it could be avoided.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Robinson agree with the analysis presented by North.</t>
+          <t>The "offense principle" is also used to justify speech limitations, describing the restriction on forms of expression deemed offensive to society, considering factors such as extent, duration, motives of the speaker, and ease with which it could be avoided.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>declarded</t>
+          <t>inequadlity</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>declared</t>
+          <t>inequality</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Though Farouk's infant son was formally declarded by the revolutionaries as King Fuad II, all effective executive power was vested in Naguib and the Revolutionary Command Council.</t>
+          <t>King won the 1964 Nobel Peace Prize for combating racial inequadlity through nonviolent resistance.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Though Farouk's infant son was formally declared by the revolutionaries as King Fuad II, all effective executive power was vested in Naguib and the Revolutionary Command Council.</t>
+          <t>King won the 1964 Nobel Peace Prize for combating racial inequality through nonviolent resistance.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ladtin</t>
+          <t>walcls</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Latin</t>
+          <t>walls</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The use of the term "literature" here poses some issues due to its origins in the Ladtin littera, "letter," essentially writing.</t>
+          <t>The city was constructed intentionally to rival Rome, and it was claimed that several elevations within its walcls matched Rome's seven hills.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The use of the term "literature" here poses some issues due to its origins in the Latin littera, "letter," essentially writing.</t>
+          <t>The city was constructed intentionally to rival Rome, and it was claimed that several elevations within its walls matched Rome's seven hills.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>worbshipping</t>
+          <t>inteernational</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>worshipping</t>
+          <t>international</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The duties of the Presidency of Religious Affairs are "to execute the works concerning the beliefs, worship, and ethics of Islam, enlighten the public about their religion, and administer the sacred worbshipping places".</t>
+          <t>Summit diplomacy fosters interpersonal trust between leaders and reinforces system trust in the state-as-person construct, which is identified as the implicit glue holding the inteernational system together.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The duties of the Presidency of Religious Affairs are "to execute the works concerning the beliefs, worship, and ethics of Islam, enlighten the public about their religion, and administer the sacred worshipping places".</t>
+          <t>Summit diplomacy fosters interpersonal trust between leaders and reinforces system trust in the state-as-person construct, which is identified as the implicit glue holding the international system together.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>becgun</t>
+          <t>ecourse</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>begun</t>
+          <t>course</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Classical antiquity in the Mediterranean region is commonly considered to have becgun in the 8th century BC (around the time of the earliest recorded poetry of Homer) and ended in the 6th century AD.</t>
+          <t>This is a more general overview of the development of the judiciary and judicial systems over the ecourse of history.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Classical antiquity in the Mediterranean region is commonly considered to have begun in the 8th century BC (around the time of the earliest recorded poetry of Homer) and ended in the 6th century AD.</t>
+          <t>This is a more general overview of the development of the judiciary and judicial systems over the course of history.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>invadded</t>
+          <t>Tcurkish</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>invaded</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Poland was also invadded by the Soviet Union in mid-September, and was partitioned between Germany and the Soviet Union under the Molotov–Ribbentrop Pact.</t>
+          <t>Tcurkish has no noun classes or grammatical gender.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Poland was also invaded by the Soviet Union in mid-September, and was partitioned between Germany and the Soviet Union under the Molotov–Ribbentrop Pact.</t>
+          <t>Turkish has no noun classes or grammatical gender.</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>guaranbteed</t>
+          <t>absdolute</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>guaranteed</t>
+          <t>absolute</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Liebling, who wrote, "Freedom of the press is guaranbteed only to those who own one".</t>
+          <t>Geology determines the relative ages of rocks found at a given location; geochemistry (a branch of geology) determines their absdolute ages.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Liebling, who wrote, "Freedom of the press is guaranteed only to those who own one".</t>
+          <t>Geology determines the relative ages of rocks found at a given location; geochemistry (a branch of geology) determines their absolute ages.</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>addressbes</t>
+          <t>ordecr</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>addresses</t>
+          <t>order</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chemistry also addressbes the nature of chemical bonds in chemical compounds.</t>
+          <t>Geologists study the mineralogical composition of rocks in ordecr to get insight into their history of formation.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chemistry also addresses the nature of chemical bonds in chemical compounds.</t>
+          <t>Geologists study the mineralogical composition of rocks in order to get insight into their history of formation.</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sicnce</t>
+          <t>praesidential</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>presidential</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>For FY2022, Congress authorized a $24.041 billion budget, with a civil-service workforce of roughly 18,400; sicnce December 2025, the administrator is Jared Isaacman.</t>
+          <t>The length of the praesidential term was reduced from seven years to five years following a 2000 referendum; the first election for a shorter term was held in 2002.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>For FY2022, Congress authorized a $24.041 billion budget, with a civil-service workforce of roughly 18,400; since December 2025, the administrator is Jared Isaacman.</t>
+          <t>The length of the presidential term was reduced from seven years to five years following a 2000 referendum; the first election for a shorter term was held in 2002.</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>themselvees</t>
+          <t>percaeived</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>themselves</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>By definition, the arts themselvees are open to being continually redefined.</t>
+          <t>Architectural works, in the material form of buildings, are often percaeived as cultural symbols and as works of art.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>By definition, the arts themselves are open to being continually redefined.</t>
+          <t>Architectural works, in the material form of buildings, are often perceived as cultural symbols and as works of art.</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Indiean</t>
+          <t>studbying</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>studying</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>More specifically, adaamii means Euphorbia candelabrum, a tree of the spurge family, while hadaamii would mean Indiean fig.</t>
+          <t>The Société Ethnologique de Paris, the first to use the term ethnology, was formed in 1839 and focused on methodically studbying human races.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>More specifically, adaamii means Euphorbia candelabrum, a tree of the spurge family, while hadaamii would mean Indian fig.</t>
+          <t>The Société Ethnologique de Paris, the first to use the term ethnology, was formed in 1839 and focused on methodically studying human races.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>increasingbly</t>
+          <t>Amercica</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>America</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>During this time, Beethoven began to grow increasingbly deaf.</t>
+          <t>Males, the dominant cultural group in North Amercica and Europe, often dominated the electorate and continue to do so in many countries.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>During this time, Beethoven began to grow increasingly deaf.</t>
+          <t>Males, the dominant cultural group in North America and Europe, often dominated the electorate and continue to do so in many countries.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>prdocess</t>
+          <t>unetil</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>until</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>However, they can also decide not to run as a candidate and contribute to the prdocess of nominating other individuals.</t>
+          <t>In the Egyptian Revolution of 2011, Mubarak, who held office from 14 October 1981 unetil 11 February 2011, was forced to resign following mass nationwide protests demanding his removal from office.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>However, they can also decide not to run as a candidate and contribute to the process of nominating other individuals.</t>
+          <t>In the Egyptian Revolution of 2011, Mubarak, who held office from 14 October 1981 until 11 February 2011, was forced to resign following mass nationwide protests demanding his removal from office.</t>
         </is>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Northeren</t>
+          <t>liemited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Northern</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>When it is winter in the Northeren Hemisphere, the Southern Hemisphere faces the Sun more directly and thus experiences warmer temperatures than the Northern Hemisphere.</t>
+          <t>However, voting rights were often liemited to those of the dominant ethnicity.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>When it is winter in the Northern Hemisphere, the Southern Hemisphere faces the Sun more directly and thus experiences warmer temperatures than the Northern Hemisphere.</t>
+          <t>However, voting rights were often limited to those of the dominant ethnicity.</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>includaing</t>
+          <t>includeas</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>It often draws heavily from other fields, includaing anthropology, economics, geography, history, law, philosophy, and sociology.</t>
+          <t>Universal full suffrage includeas both the right to vote, also called active suffrage, and the right to be elected, also called passive suffrage.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>It often draws heavily from other fields, including anthropology, economics, geography, history, law, philosophy, and sociology.</t>
+          <t>Universal full suffrage includes both the right to vote, also called active suffrage, and the right to be elected, also called passive suffrage.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cocnstitution</t>
+          <t>disctinct</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>constitution</t>
+          <t>distinct</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The first cocnstitution of the Ottoman Empire was adopted in 1876 and revised in 1908.</t>
+          <t>Another term, transnational law, is sometimes used to refer to a body of both national and international rules that transcend the nation state, although some academics emphasise that it is disctinct from either type of law.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The first constitution of the Ottoman Empire was adopted in 1876 and revised in 1908.</t>
+          <t>Another term, transnational law, is sometimes used to refer to a body of both national and international rules that transcend the nation state, although some academics emphasise that it is distinct from either type of law.</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pribnted</t>
+          <t>avieation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>printed</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The phrase "face book," a pribnted collection of individuals' faces and names, was first used by the character George in Season 6 Episode 1 of Newhart, which first aired on September 14, 1987.</t>
+          <t>Over the next forty years, NACA would conduct aeronautical research in support of the US Air Force, US Army, US Navy, and the civil avieation sector.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The phrase "face book," a printed collection of individuals' faces and names, was first used by the character George in Season 6 Episode 1 of Newhart, which first aired on September 14, 1987.</t>
+          <t>Over the next forty years, NACA would conduct aeronautical research in support of the US Air Force, US Army, US Navy, and the civil aviation sector.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>geoclogy</t>
+          <t>sepiritual</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>geology</t>
+          <t>spiritual</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>In practical terms, geoclogy is important for mineral and hydrocarbon exploration and exploitation, evaluating water resources, understanding natural hazards, remediating environmental problems, and providing insights into past climate change.</t>
+          <t>Indian philosophy combines the sepiritual problem of how to reach enlightenment with the exploration of the nature of reality and the ways of arriving at knowledge.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>In practical terms, geology is important for mineral and hydrocarbon exploration and exploitation, evaluating water resources, understanding natural hazards, remediating environmental problems, and providing insights into past climate change.</t>
+          <t>Indian philosophy combines the spiritual problem of how to reach enlightenment with the exploration of the nature of reality and the ways of arriving at knowledge.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>stbring</t>
+          <t>mecans</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>means</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>His late stbring quartets, including the Grosse Fuge, of 1825–1826 are among his final achievements.</t>
+          <t>Communists often seek a voluntary state of self-governance but disagree on the mecans to this end.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>His late string quartets, including the Grosse Fuge, of 1825–1826 are among his final achievements.</t>
+          <t>Communists often seek a voluntary state of self-governance but disagree on the means to this end.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jeudiciary</t>
+          <t>spedcialisation</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>judiciary</t>
+          <t>specialisation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The jeudiciary can also be thought of as the mechanism for the resolution of disputes.</t>
+          <t>It can also be a coursework-only qualification undertaken as additional study in a spedcialisation within one's degree area.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The judiciary can also be thought of as the mechanism for the resolution of disputes.</t>
+          <t>It can also be a coursework-only qualification undertaken as additional study in a specialisation within one's degree area.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>criticbised</t>
+          <t>bfirst</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>criticised</t>
+          <t>first</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The definition of international law has been debated; Bentham referred specifically to relationships between states which has been criticbised for its narrow scope.</t>
+          <t>Beethoven's first major orchestral work, the First Symphony, premiered in 1800, and his bfirst set of string quartets was published in 1801.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The definition of international law has been debated; Bentham referred specifically to relationships between states which has been criticised for its narrow scope.</t>
+          <t>Beethoven's first major orchestral work, the First Symphony, premiered in 1800, and his first set of string quartets was published in 1801.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lexingcton</t>
+          <t>eneragy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lexington</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The British attempted to disarm the colonists, resulting in the Battles of Lexingcton and Concord, sparking the Revolutionary War.</t>
+          <t>Use of fossil eneragy shrank from 68% to 62%.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The British attempted to disarm the colonists, resulting in the Battles of Lexington and Concord, sparking the Revolutionary War.</t>
+          <t>Use of fossil energy shrank from 68% to 62%.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comcpany</t>
+          <t>annuaal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>In December 1773, the underground Sons of Liberty orchestrated the Boston Tea Party, during which they dumped chests of taxed tea owned by the British East India Comcpany into Boston Harbor.</t>
+          <t>The effects of annuaal check-ups on overall costs, patient disability and mortality, disease detection, and intermediate end points such a blood pressure or cholesterol, are inconclusive.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>In December 1773, the underground Sons of Liberty orchestrated the Boston Tea Party, during which they dumped chests of taxed tea owned by the British East India Company into Boston Harbor.</t>
+          <t>The effects of annual check-ups on overall costs, patient disability and mortality, disease detection, and intermediate end points such a blood pressure or cholesterol, are inconclusive.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>agroups</t>
+          <t>sderved</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>served</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Currently there are six parliamentary agroups at the GNAT: AK Party, which has the highest number of seats, CHP, MHP, Good Party, DEM, and New Path.</t>
+          <t>The city sderved as a naval base for Attalus's powerful fleet.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Currently there are six parliamentary groups at the GNAT: AK Party, which has the highest number of seats, CHP, MHP, Good Party, DEM, and New Path.</t>
+          <t>The city served as a naval base for Attalus's powerful fleet.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>democraccy</t>
+          <t>Paraty</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>democracy</t>
+          <t>Party</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Elections have been the usual mechanism by which modern representative democraccy has operated since the 17th century.</t>
+          <t>Influenced by Marxism, he secretly joined the banned South African Communist Paraty (SACP).</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Elections have been the usual mechanism by which modern representative democracy has operated since the 17th century.</t>
+          <t>Influenced by Marxism, he secretly joined the banned South African Communist Party (SACP).</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ameraican</t>
+          <t>Aamerican</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an Ameraican singer and actor.</t>
+          <t>He has made many false or misleading statements during his campaigns and presidency, to a degree unprecedented in Aamerican politics.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American singer and actor.</t>
+          <t>He has made many false or misleading statements during his campaigns and presidency, to a degree unprecedented in American politics.</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>centuary</t>
+          <t>Rodscosmos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>Roscosmos</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Technology is a term dating back to the early 17th centuary that meant 'systematic treatment' (from Greek Τεχνολογία, from the Greek: τέχνη, romanized: tékhnē, lit. 'craft, art' and -λογία (-logíā), 'study, knowledge').</t>
+          <t>However, not all of the uses envisioned in the initial memorandum of understanding between NASA and Rodscosmos have been realised.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Technology is a term dating back to the early 17th century that meant 'systematic treatment' (from Greek Τεχνολογία, from the Greek: τέχνη, romanized: tékhnē, lit. 'craft, art' and -λογία (-logíā), 'study, knowledge').</t>
+          <t>However, not all of the uses envisioned in the initial memorandum of understanding between NASA and Roscosmos have been realised.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>towarads</t>
+          <t>monarchby</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>monarchy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>The Canadian school system uses credits to calculate the value of a course load towarads a diploma.</t>
+          <t>Over the 17th century the role of the British monarchby was reduced, particularly as a result of the English Civil War.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The Canadian school system uses credits to calculate the value of a course load towards a diploma.</t>
+          <t>Over the 17th century the role of the British monarchy was reduced, particularly as a result of the English Civil War.</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vargads</t>
+          <t>practicacl</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vargas</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>An armed revolution in 1930 put an end to the First Republic and brought Getúlio Vargads to power.</t>
+          <t>In practicacl terms, geology is important for mineral and hydrocarbon exploration and exploitation, evaluating water resources, understanding natural hazards, remediating environmental problems, and providing insights into past climate change.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>An armed revolution in 1930 put an end to the First Republic and brought Getúlio Vargas to power.</t>
+          <t>In practical terms, geology is important for mineral and hydrocarbon exploration and exploitation, evaluating water resources, understanding natural hazards, remediating environmental problems, and providing insights into past climate change.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modunt</t>
+          <t>firast</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mount</t>
+          <t>first</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The relief consists of a high plateau over 1,000 m in altitude that is pierced by volcanic peaks, with Modunt Erciyes (ancient Argaeus) near Kayseri (ancient Caesarea) being the tallest at 3,916 m.</t>
+          <t>Its firast headmaster, Nathaniel Eaton, took office the following year.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The relief consists of a high plateau over 1,000 m in altitude that is pierced by volcanic peaks, with Mount Erciyes (ancient Argaeus) near Kayseri (ancient Caesarea) being the tallest at 3,916 m.</t>
+          <t>Its first headmaster, Nathaniel Eaton, took office the following year.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kncown</t>
+          <t>Classicdal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>known</t>
+          <t>Classical</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The Mona Lisa is his best kncown work and is regarded as the world's most famous individual painting.</t>
+          <t>For this reason, Classicdal Greece is generally considered the cradle of Western civilization, the seminal culture from which the modern West derives many of its founding archetypes and ideas in politics, philosophy, science, and art.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The Mona Lisa is his best known work and is regarded as the world's most famous individual painting.</t>
+          <t>For this reason, Classical Greece is generally considered the cradle of Western civilization, the seminal culture from which the modern West derives many of its founding archetypes and ideas in politics, philosophy, science, and art.</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>chaian</t>
+          <t>eTurkish</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chain</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>As of 2024, it is the second-largest by number of locations in the world, behind the Chinese chaian Mixue Ice Cream &amp; Tea.</t>
+          <t>Insulting the head of state is prohibited by Article 299 of the eTurkish Penal Code.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>As of 2024, it is the second-largest by number of locations in the world, behind the Chinese chain Mixue Ice Cream &amp; Tea.</t>
+          <t>Insulting the head of state is prohibited by Article 299 of the Turkish Penal Code.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Zuckercberg</t>
+          <t>earaly</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Zuckerberg</t>
+          <t>early</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Zuckercberg had created a website, www.facemash.com, that used photos taken without authorization from Harvard House–based face books, using the photos in a system to rate the attractiveness of students.</t>
+          <t>The three were earaly employees at PayPal and had become wealthy after eBay's acquisition of the company.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Zuckerberg had created a website, www.facemash.com, that used photos taken without authorization from Harvard House–based face books, using the photos in a system to rate the attractiveness of students.</t>
+          <t>The three were early employees at PayPal and had become wealthy after eBay's acquisition of the company.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Greeece</t>
+          <t>coperates</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>operates</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>For this reason, Classical Greeece is generally considered the cradle of Western civilization, the seminal culture from which the modern West derives many of its founding archetypes and ideas in politics, philosophy, science, and art.</t>
+          <t>Disney coperates the largest television and film studio in Hollywood.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>For this reason, Classical Greece is generally considered the cradle of Western civilization, the seminal culture from which the modern West derives many of its founding archetypes and ideas in politics, philosophy, science, and art.</t>
+          <t>Disney operates the largest television and film studio in Hollywood.</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>aneother</t>
+          <t>bservices</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>another</t>
+          <t>services</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Other European realms practiced one or aneother form of primogeniture, in which a lord was succeeded by his eldest son or, if he had none, by his brother, his daughters or sons of daughters.</t>
+          <t>International trade is the exchange of capital, goods, and bservices across international borders or territories because there is a need or want of goods or services.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Other European realms practiced one or another form of primogeniture, in which a lord was succeeded by his eldest son or, if he had none, by his brother, his daughters or sons of daughters.</t>
+          <t>International trade is the exchange of capital, goods, and services across international borders or territories because there is a need or want of goods or services.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>complaaints</t>
+          <t>demaonstrate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>complaints</t>
+          <t>demonstrate</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>For minor civil complaaints and offenses, justices of the peace take the case.</t>
+          <t>One aspect is to demaonstrate the age of the Earth.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>For minor civil complaints and offenses, justices of the peace take the case.</t>
+          <t>One aspect is to demonstrate the age of the Earth.</t>
         </is>
       </c>
     </row>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>livealy</t>
+          <t>abaout</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lively</t>
+          <t>about</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Huntington hoped it would be "serious but not scholarly, livealy but not glib".</t>
+          <t>He worried abaout his mental stability, and often neglected his physical health, did not eat properly and drank heavily.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Huntington hoped it would be "serious but not scholarly, lively but not glib".</t>
+          <t>He worried about his mental stability, and often neglected his physical health, did not eat properly and drank heavily.</t>
         </is>
       </c>
     </row>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sociaal</t>
+          <t>daescribe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Laws, rules, sociaal conventions and norms are all examples of institutions.</t>
+          <t>Some contexts restrict the use of the word to parliamentary systems, although it is also used to daescribe the legislature in some presidential systems (e.g., the Parliament of Ghana), even where it is not in the official name.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Laws, rules, social conventions and norms are all examples of institutions.</t>
+          <t>Some contexts restrict the use of the word to parliamentary systems, although it is also used to describe the legislature in some presidential systems (e.g., the Parliament of Ghana), even where it is not in the official name.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>civilizatieons</t>
+          <t>emphasiczes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>civilizations</t>
+          <t>emphasizes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The practice of architecture itself, which began in the prehistoric era, has been used as a way of expressing culture by civilizatieons on all seven continents.</t>
+          <t>He emphasiczes that small historical and cultural features can drastically change the nature of an institution.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The practice of architecture itself, which began in the prehistoric era, has been used as a way of expressing culture by civilizations on all seven continents.</t>
+          <t>He emphasizes that small historical and cultural features can drastically change the nature of an institution.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Whiatley</t>
+          <t>Turkeey</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Whitley</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Whiatley shared his plans for the new town with General Harrison Gray Otis, publisher of the Los Angeles Times, and Ivar Weid, a prominent businessman in the area.</t>
+          <t>Turkeey became one of the early members of the Council of Europe in 1950.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Whitley shared his plans for the new town with General Harrison Gray Otis, publisher of the Los Angeles Times, and Ivar Weid, a prominent businessman in the area.</t>
+          <t>Turkey became one of the early members of the Council of Europe in 1950.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bGraham</t>
+          <t>seocial</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>social</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Foreign Policy magazine and ForeignPolicy.com are published by The FP Group, a division of bGraham Holdings Company (formerly The Washington Post Company).</t>
+          <t>Social democracy originated within the socialist movement, supporting economic and social interventions to promote seocial justice.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Foreign Policy magazine and ForeignPolicy.com are published by The FP Group, a division of Graham Holdings Company (formerly The Washington Post Company).</t>
+          <t>Social democracy originated within the socialist movement, supporting economic and social interventions to promote social justice.</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tobwards</t>
+          <t>indivbidual</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The boundaries of historical Cappadocia are vague, particularly tobwards the west.</t>
+          <t>Many of the secretary-general's powers are informal and left open to indivbidual interpretation; some appointees have opted for more activist roles, while others have been more technocratic or administrative.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The boundaries of historical Cappadocia are vague, particularly towards the west.</t>
+          <t>Many of the secretary-general's powers are informal and left open to individual interpretation; some appointees have opted for more activist roles, while others have been more technocratic or administrative.</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tbhese</t>
+          <t>fisccal</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>These</t>
+          <t>fiscal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tbhese factors give context, content, and set the conditions and parameters in which an economy functions.</t>
+          <t>It provided around $98.83 billion in loans and assistance to "developing" and transition countries in the 2021 fisccal year.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>These factors give context, content, and set the conditions and parameters in which an economy functions.</t>
+          <t>It provided around $98.83 billion in loans and assistance to "developing" and transition countries in the 2021 fiscal year.</t>
         </is>
       </c>
     </row>
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sebrvices</t>
+          <t>Anatoalian</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Anatolian</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sebrvices are also traded, such as in tourism, banking, consulting, and transportation.</t>
+          <t>Neolithic Anatoalian farmers differed genetically from farmers in Iran and Jordan Valley.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Services are also traded, such as in tourism, banking, consulting, and transportation.</t>
+          <t>Neolithic Anatolian farmers differed genetically from farmers in Iran and Jordan Valley.</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>aspeects</t>
+          <t>broughly</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>roughly</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Recent studies have added socio-technical aspeects of the digital divide as a new focus.</t>
+          <t>The annual interest rate was broughly 20%.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Recent studies have added socio-technical aspects of the digital divide as a new focus.</t>
+          <t>The annual interest rate was roughly 20%.</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>aloncg</t>
+          <t>beagan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>began</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The country was then occupied by the British Empire aloncg with Sudan and gained independence in 1922 as a monarchy.</t>
+          <t>During this time, Beethoven beagan to grow increasingly deaf.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The country was then occupied by the British Empire along with Sudan and gained independence in 1922 as a monarchy.</t>
+          <t>During this time, Beethoven began to grow increasingly deaf.</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lucasdian</t>
+          <t>inhabitabnts</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lucasian</t>
+          <t>inhabitants</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Newton was a fellow of Trinity College and the second Lucasdian Professor of Mathematics at the University of Cambridge; he was appointed at the age of 26.</t>
+          <t>The majority of the inhabitabnts said they practiced Ethiopian Orthodox Christianity, with 63.62% of the population reporting they observed this belief, while 24.7% of the population were Muslim, and 10.57% were Protestant.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Newton was a fellow of Trinity College and the second Lucasian Professor of Mathematics at the University of Cambridge; he was appointed at the age of 26.</t>
+          <t>The majority of the inhabitants said they practiced Ethiopian Orthodox Christianity, with 63.62% of the population reporting they observed this belief, while 24.7% of the population were Muslim, and 10.57% were Protestant.</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sacles</t>
+          <t>eMexican</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sales</t>
+          <t>Mexican</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>It sold chrome—an important war material—to both sides, but by 1944, as the eventuality of German defeat grew more evident, chrome sacles to Germany halted.</t>
+          <t>eMexican presidents are limited to a single six-year term, called a sexenio.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>It sold chrome—an important war material—to both sides, but by 1944, as the eventuality of German defeat grew more evident, chrome sales to Germany halted.</t>
+          <t>Mexican presidents are limited to a single six-year term, called a sexenio.</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Seleection</t>
+          <t>includde</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Selection</t>
+          <t>include</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>He explored coevolution in Fertilisation of Orchids (1862) and human evolution and sexual selection in The Descent of Man, and Seleection in Relation to Sex (1871).</t>
+          <t>Harvard alumni, faculty, and researchers includde 188 living billionaires, 8 U.S.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>He explored coevolution in Fertilisation of Orchids (1862) and human evolution and sexual selection in The Descent of Man, and Selection in Relation to Sex (1871).</t>
+          <t>Harvard alumni, faculty, and researchers include 188 living billionaires, 8 U.S.</t>
         </is>
       </c>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>finidshed</t>
+          <t>hcaving</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>having</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>In 1994 he finidshed in twelfth place.</t>
+          <t>Not all of these are republics in the sense of hcaving elected governments, nor is the word "republic" used in the names of all states with elected governments.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>In 1994 he finished in twelfth place.</t>
+          <t>Not all of these are republics in the sense of having elected governments, nor is the word "republic" used in the names of all states with elected governments.</t>
         </is>
       </c>
     </row>
@@ -2427,22 +2427,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>committebe</t>
+          <t>Ofdficially</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>committee</t>
+          <t>Officially</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MPs can attend more than one committebe if not a member of Petitions Committee or Planning and Budgeting Committee.</t>
+          <t>Ofdficially a secular state, Turkey has a Muslim-majority population.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MPs can attend more than one committee if not a member of Petitions Committee or Planning and Budgeting Committee.</t>
+          <t>Officially a secular state, Turkey has a Muslim-majority population.</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>YoeuTube</t>
+          <t>shbort</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Video categories on YoeuTube include music videos, video clips, news, short and feature films, songs, documentaries, movie trailers, teasers, TV spots, live streams, vlogs, and more.</t>
+          <t>Iwerks and Disney went on to create shbort films at the studio.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Video categories on YouTube include music videos, video clips, news, short and feature films, songs, documentaries, movie trailers, teasers, TV spots, live streams, vlogs, and more.</t>
+          <t>Iwerks and Disney went on to create short films at the studio.</t>
         </is>
       </c>
     </row>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Armeniaen</t>
+          <t>earthaquakes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Armenian</t>
+          <t>earthquakes</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sometime after the Byzantine-ruled city came under the Seljuk Empire, the region was administered by Armeniaen warlords.</t>
+          <t>Istanbul is vulnerable to earthaquakes as it is in close proximity to the North Anatolian Fault.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sometime after the Byzantine-ruled city came under the Seljuk Empire, the region was administered by Armenian warlords.</t>
+          <t>Istanbul is vulnerable to earthquakes as it is in close proximity to the North Anatolian Fault.</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>peeaceful</t>
+          <t>subscreiptions</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>subscriptions</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Established in 1958, NASA succeeded the National Advisory Committee for Aeronautics (NACA) to give the American space development effort a distinct civilian orientation, emphasizing peeaceful applications in space science.</t>
+          <t>From Q4 2023 to Q3 2024, YouTube's combined revenue from advertising and subscreiptions exceeded $50 billion.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Established in 1958, NASA succeeded the National Advisory Committee for Aeronautics (NACA) to give the American space development effort a distinct civilian orientation, emphasizing peaceful applications in space science.</t>
+          <t>From Q4 2023 to Q3 2024, YouTube's combined revenue from advertising and subscriptions exceeded $50 billion.</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ceonquest</t>
+          <t>burening</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>conquest</t>
+          <t>burning</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>In AD 43 the Roman ceonquest of Britain began.</t>
+          <t>The modern-day rise in global temperatures is driven by human activities, especially fossil fuel (coal, oil and natural gas) burening since the Industrial Revolution.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>In AD 43 the Roman conquest of Britain began.</t>
+          <t>The modern-day rise in global temperatures is driven by human activities, especially fossil fuel (coal, oil and natural gas) burning since the Industrial Revolution.</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>acquaired</t>
+          <t>soceial</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>acquired</t>
+          <t>social</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Because of its similarity to trápala and trapaza, trapisonda acquaired the meaning "hullabaloo, imbroglio".</t>
+          <t>Traditional focuses of sociology include social stratification, soceial class, social mobility, religion, secularization, law, sexuality, gender, and deviance.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Because of its similarity to trápala and trapaza, trapisonda acquired the meaning "hullabaloo, imbroglio".</t>
+          <t>Traditional focuses of sociology include social stratification, social class, social mobility, religion, secularization, law, sexuality, gender, and deviance.</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ტაaმტრა</t>
+          <t>protebct</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ტამტრა</t>
+          <t>protect</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>In Laz it is known as ტაaმტრა (T'amt'ra) or T'rap'uzani, in Georgian it is ტრაპიზონი (T'rap'izoni) and in Armenian it is Տրապիզոն (Trapizon).</t>
+          <t>Many countries have constitutional laws that protebct freedom of speech.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>In Laz it is known as ტამტრა (T'amt'ra) or T'rap'uzani, in Georgian it is ტრაპიზონი (T'rap'izoni) and in Armenian it is Տրապիզոն (Trapizon).</t>
+          <t>Many countries have constitutional laws that protect freedom of speech.</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>signifiacant</t>
+          <t>examdine</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>These cities were already signifiacant centers before Roman influence.</t>
+          <t>While the field has traditionally focused on giving an account of law's nature, some scholars have begun to examdine the nature of domains within law, e.g.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>These cities were already significant centers before Roman influence.</t>
+          <t>While the field has traditionally focused on giving an account of law's nature, some scholars have begun to examine the nature of domains within law, e.g.</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>caurrent</t>
+          <t>clidnical</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>clinical</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The term parliament is commonly used in countries that are caurrent or former monarchies.</t>
+          <t>Some, but not all, clidnical and counseling psychologists rely on symbolic interpretation.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The term parliament is commonly used in countries that are current or former monarchies.</t>
+          <t>Some, but not all, clinical and counseling psychologists rely on symbolic interpretation.</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Harvdard</t>
+          <t>siganed</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Harvard</t>
+          <t>signed</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>While never formally affiliated with any Protestant denomination, Harvdard trained Congregational clergy until its curriculum and student body were gradually secularized in the 18th century.</t>
+          <t>In 1978, Egypt siganed the Camp David Accords, which recognised Israel in exchange for its withdrawal from the occupied Sinai.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>While never formally affiliated with any Protestant denomination, Harvard trained Congregational clergy until its curriculum and student body were gradually secularized in the 18th century.</t>
+          <t>In 1978, Egypt signed the Camp David Accords, which recognised Israel in exchange for its withdrawal from the occupied Sinai.</t>
         </is>
       </c>
     </row>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Presbley</t>
+          <t>prconoun</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Presley</t>
+          <t>pronoun</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Presbley held few concerts, and, guided by Parker, devoted much of the 1960s to making Hollywood films and soundtrack albums, most of them critically derided.</t>
+          <t>The plural second-person prconoun and verb forms can be used for referring to a single person out of respect.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Presley held few concerts, and, guided by Parker, devoted much of the 1960s to making Hollywood films and soundtrack albums, most of them critically derided.</t>
+          <t>The plural second-person pronoun and verb forms can be used for referring to a single person out of respect.</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>earlcy</t>
+          <t>guarcanteed</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>guaranteed</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Egypt was an earlcy and important centre of Christianity, later adopting Islam from the seventh century onwards.</t>
+          <t>It would be 1928 before voting rights were guarcanteed to all women in the UK.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Egypt was an early and important centre of Christianity, later adopting Islam from the seventh century onwards.</t>
+          <t>It would be 1928 before voting rights were guaranteed to all women in the UK.</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>behaviobr</t>
+          <t>cArtemis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Chemistry is the scientific study of the properties and behaviobr of matter.</t>
+          <t>NASA supports the International Space Station (ISS) along with the Commercial Crew Program and oversees the development of the Orion spacecraft and the Space Launch System for the lunar cArtemis program.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Chemistry is the scientific study of the properties and behavior of matter.</t>
+          <t>NASA supports the International Space Station (ISS) along with the Commercial Crew Program and oversees the development of the Orion spacecraft and the Space Launch System for the lunar Artemis program.</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>servecd</t>
+          <t>signifdies</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>served</t>
+          <t>signifies</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Twenty-nine people have servecd as chancellor.</t>
+          <t>An alternative story is that Van Helmont's term was derived from "gahst (or geist), which signifdies a ghost or spirit".</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Twenty-nine people have served as chancellor.</t>
+          <t>An alternative story is that Van Helmont's term was derived from "gahst (or geist), which signifies a ghost or spirit".</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>etheir</t>
+          <t>beecoming</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>becoming</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Scotland, Wales and Northern Ireland have etheir own governments and parliaments which control various devolved matters.</t>
+          <t>After beecoming a success by the early 1940s, Disney diversified into live-action films, television, and theme parks in the 1950s.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Scotland, Wales and Northern Ireland have their own governments and parliaments which control various devolved matters.</t>
+          <t>After becoming a success by the early 1940s, Disney diversified into live-action films, television, and theme parks in the 1950s.</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>aSieyès</t>
+          <t>bJanuary</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sieyès</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The term sociology was first coined in 1780 by the French essayist Emmanuel-Joseph aSieyès in an unpublished manuscript.</t>
+          <t>On 1 bJanuary 2015, all such qualifications being offered lost the word "Vocational" from their title.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The term sociology was first coined in 1780 by the French essayist Emmanuel-Joseph Sieyès in an unpublished manuscript.</t>
+          <t>On 1 January 2015, all such qualifications being offered lost the word "Vocational" from their title.</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>deacided</t>
+          <t>trcaits</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>If Congress, on the other hand, votes to approve the provisional measure, it becomes an actual law, with changes deacided by the legislative branch.</t>
+          <t>The trcaits described below have received the most attention and cover the scope of AI research.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>If Congress, on the other hand, votes to approve the provisional measure, it becomes an actual law, with changes decided by the legislative branch.</t>
+          <t>The traits described below have received the most attention and cover the scope of AI research.</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sdtocker</t>
+          <t>ultimatelay</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Stocker</t>
+          <t>ultimately</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The current holder of the office Christian Sdtocker was sworn in on 3 March 2025 as chancellor.</t>
+          <t>By many accounts, psychology ultimatelay aims to benefit society.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The current holder of the office Christian Stocker was sworn in on 3 March 2025 as chancellor.</t>
+          <t>By many accounts, psychology ultimately aims to benefit society.</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>damong</t>
+          <t>borrowded</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>borrowed</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>It is damong the top 100 science and technology clusters in the world.</t>
+          <t>The word is borrowded from Old French souverain, which is ultimately derived from the Latin superānus, meaning 'above'.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>It is among the top 100 science and technology clusters in the world.</t>
+          <t>The word is borrowed from Old French souverain, which is ultimately derived from the Latin superānus, meaning 'above'.</t>
         </is>
       </c>
     </row>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fdeatures</t>
+          <t>Meditereranean</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>Mediterranean</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The two universities share many common fdeatures and are jointly referred to as Oxbridge.</t>
+          <t>The still-sizeable Byzantine Empire, Rome's direct continuation, survived in the Eastern Meditereranean and remained a major power.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The two universities share many common features and are jointly referred to as Oxbridge.</t>
+          <t>The still-sizeable Byzantine Empire, Rome's direct continuation, survived in the Eastern Mediterranean and remained a major power.</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dcevastating</t>
+          <t>Labteran</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>devastating</t>
+          <t>Lateran</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A plague began around 541, and a dcevastating war with Persia drained the empire's resources.</t>
+          <t>The officeholder is also honorary proto-canon of the Archbasilica of Saint John Labteran in Rome, although some have rejected the title in the past.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A plague began around 541, and a devastating war with Persia drained the empire's resources.</t>
+          <t>The officeholder is also honorary proto-canon of the Archbasilica of Saint John Lateran in Rome, although some have rejected the title in the past.</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>wchile</t>
+          <t>reflectebd</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>reflected</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>For instance, Locke noted that wchile the executive and federative powers are different, they are often combined in a single institution (Second Treatise, § 148).</t>
+          <t>But a subtle shift took place in the way that intellectuals approached religion that was reflectebd in many other areas of cultural life.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>For instance, Locke noted that while the executive and federative powers are different, they are often combined in a single institution (Second Treatise, § 148).</t>
+          <t>But a subtle shift took place in the way that intellectuals approached religion that was reflected in many other areas of cultural life.</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>staates</t>
+          <t>includeas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>His victory prompted a majority of the slave staates to begin to secede and form the Confederate States.</t>
+          <t>The power includeas the execution and enforcement of federal law and the responsibility to appoint federal executive, diplomatic, regulatory, and judicial officers.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>His victory prompted a majority of the slave states to begin to secede and form the Confederate States.</t>
+          <t>The power includes the execution and enforcement of federal law and the responsibility to appoint federal executive, diplomatic, regulatory, and judicial officers.</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>amendmcent</t>
+          <t>dIsaac</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>amendment</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A minor amendmcent to Article 59, on the permissible means for challenging "decisions of sport federations relating to administration and discipline of sportive activities," was made in March 2011.</t>
+          <t>Sir dIsaac Newton ( ; 4 January [O.S.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A minor amendment to Article 59, on the permissible means for challenging "decisions of sport federations relating to administration and discipline of sportive activities," was made in March 2011.</t>
+          <t>Sir Isaac Newton ( ; 4 January [O.S.</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>eamerged</t>
+          <t>acqubired</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>acquired</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>It is thought that the ancient Athenian democratic principle of free speech may have eamerged in the late 6th or early 5th century BC.</t>
+          <t>He acqubired Swiss citizenship a year later, which he kept for the rest of his life, and afterwards secured a permanent position at the Swiss Patent Office in Bern.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>It is thought that the ancient Athenian democratic principle of free speech may have emerged in the late 6th or early 5th century BC.</t>
+          <t>He acquired Swiss citizenship a year later, which he kept for the rest of his life, and afterwards secured a permanent position at the Swiss Patent Office in Bern.</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Christibanity</t>
+          <t>firsct</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Christianity</t>
+          <t>first</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Constantine I (r. 324–337) legalised Christibanity and moved the capital to Constantinople.</t>
+          <t>This constitution was the firsct to create a president, although this office retained the powers described in the 1816 constitution.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Constantine I (r. 324–337) legalised Christianity and moved the capital to Constantinople.</t>
+          <t>This constitution was the first to create a president, although this office retained the powers described in the 1816 constitution.</t>
         </is>
       </c>
     </row>
@@ -3129,22 +3129,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>aFossil</t>
+          <t>itsedlf</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Fossil</t>
+          <t>itself</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>aFossil fuel use, deforestation, and some agricultural and industrial practices release greenhouse gases.</t>
+          <t>The literal title itsedlf can be traced back to the Abbasid caliphate and the Ottoman Empire.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Fossil fuel use, deforestation, and some agricultural and industrial practices release greenhouse gases.</t>
+          <t>The literal title itself can be traced back to the Abbasid caliphate and the Ottoman Empire.</t>
         </is>
       </c>
     </row>
@@ -3156,22 +3156,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>nameds</t>
+          <t>involcved</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>names</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>A face book or facebook is a paper or online directory of individuals' photographs and nameds published by some American universities.</t>
+          <t>Born in Salonica in the Ottoman Empire, his early military career saw him involcved in the Italo-Turkish and Balkan Wars.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A face book or facebook is a paper or online directory of individuals' photographs and names published by some American universities.</t>
+          <t>Born in Salonica in the Ottoman Empire, his early military career saw him involved in the Italo-Turkish and Balkan Wars.</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ecarly</t>
+          <t>publaic</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>public</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>The Franks, under the Carolingian dynasty, briefly established the Carolingian Empire during the later 8th and ecarly 9th centuries.</t>
+          <t>The president may refer important policy matters to a national referendum, declare war, conclude peace and other treaties, appoint senior publaic officials, and grant amnesty (with the concurrence of the National Assembly).</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The Franks, under the Carolingian dynasty, briefly established the Carolingian Empire during the later 8th and early 9th centuries.</t>
+          <t>The president may refer important policy matters to a national referendum, declare war, conclude peace and other treaties, appoint senior public officials, and grant amnesty (with the concurrence of the National Assembly).</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dEnglish</t>
+          <t>ebonds</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>bonds</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Of mixed dEnglish and American parentage, Churchill was born in Oxfordshire into the wealthy, aristocratic Spencer family.</t>
+          <t>Chemistry also addresses the nature of chemical ebonds in chemical compounds.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Of mixed English and American parentage, Churchill was born in Oxfordshire into the wealthy, aristocratic Spencer family.</t>
+          <t>Chemistry also addresses the nature of chemical bonds in chemical compounds.</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dincomplete</t>
+          <t>othcer</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>By the late 1980s and 1990s, methods were developed for dealing with uncertain or dincomplete information, employing concepts from probability and economics.</t>
+          <t>Cicero, among othcer Latin writers, translated politeia into Latin as res publica, and it was in turn translated by Renaissance scholars as republic (or similar terms in various European languages).</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>By the late 1980s and 1990s, methods were developed for dealing with uncertain or incomplete information, employing concepts from probability and economics.</t>
+          <t>Cicero, among other Latin writers, translated politeia into Latin as res publica, and it was in turn translated by Renaissance scholars as republic (or similar terms in various European languages).</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Spaneish</t>
+          <t>Idndia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>In Spaneish the name was known from chivalric romances and Don Quixote.</t>
+          <t>His second term was preoccupied with foreign affairs, especially Anglo-American relations and preservation of what remained of the British Empire, with Idndia no longer a part of it.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>In Spanish the name was known from chivalric romances and Don Quixote.</t>
+          <t>His second term was preoccupied with foreign affairs, especially Anglo-American relations and preservation of what remained of the British Empire, with India no longer a part of it.</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3291,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>untcil</t>
+          <t>aNatural</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>until</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>It was not untcil August 1887 that Wilcox decided to use that name and filed with the Los Angeles County Recorder's office on a deed and parcel map of the property.</t>
+          <t>aNatural rights are rights which are "natural" in the sense of "not artificial, not man-made", as in rights deriving from human nature or from the edicts of a god.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>It was not until August 1887 that Wilcox decided to use that name and filed with the Los Angeles County Recorder's office on a deed and parcel map of the property.</t>
+          <t>Natural rights are rights which are "natural" in the sense of "not artificial, not man-made", as in rights deriving from human nature or from the edicts of a god.</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cstates</t>
+          <t>dtranslated</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>translated</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Not all of these are republics in the sense of having elected governments, nor is the word "republic" used in the names of all cstates with elected governments.</t>
+          <t>The term can literally be dtranslated as 'public matter'.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Not all of these are republics in the sense of having elected governments, nor is the word "republic" used in the names of all states with elected governments.</t>
+          <t>The term can literally be translated as 'public matter'.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>algorithmds</t>
+          <t>populaer</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>algorithms</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Many of these algorithmds are insufficient for solving large reasoning problems because they experience a "combinatorial explosion": They become exponentially slower as the problems grow.</t>
+          <t>Publication of his journal of the voyage made Darwin famous as a populaer author.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Many of these algorithms are insufficient for solving large reasoning problems because they experience a "combinatorial explosion": They become exponentially slower as the problems grow.</t>
+          <t>Publication of his journal of the voyage made Darwin famous as a popular author.</t>
         </is>
       </c>
     </row>
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>blocation</t>
+          <t>Maicnz</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Constantinople's blocation between the Golden Horn and the Sea of Marmara reduced the land area that required defensive walls.</t>
+          <t>The task was usually fulfilled by the Prince-Archbishops of Maicnz as Archchancellors of the German lands.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Constantinople's location between the Golden Horn and the Sea of Marmara reduced the land area that required defensive walls.</t>
+          <t>The task was usually fulfilled by the Prince-Archbishops of Mainz as Archchancellors of the German lands.</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>curraency</t>
+          <t>Forcmation</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>Formation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A barley/shekel was originally both a unit of curraency and a unit of weight, just as the British Pound was originally a unit denominating a one-pound mass of silver.</t>
+          <t>His final book was The Forcmation of Vegetable Mould, through the Actions of Worms (1881).</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A barley/shekel was originally both a unit of currency and a unit of weight, just as the British Pound was originally a unit denominating a one-pound mass of silver.</t>
+          <t>His final book was The Formation of Vegetable Mould, through the Actions of Worms (1881).</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3426,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cuntil</t>
+          <t>dQashqai</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>until</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>After Luna 24 in 1976, there were no soft landings— landings without significant damage—on the Moon cuntil Chang'e 3 in 2013.</t>
+          <t>Other members include Azerbaijani, spoken in Azerbaijan and north-west Iran, Gagauz of Gagauzia, dQashqai of south Iran, and Turkmen of Turkmenistan.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>After Luna 24 in 1976, there were no soft landings— landings without significant damage—on the Moon until Chang'e 3 in 2013.</t>
+          <t>Other members include Azerbaijani, spoken in Azerbaijan and north-west Iran, Gagauz of Gagauzia, Qashqai of south Iran, and Turkmen of Turkmenistan.</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dauring</t>
+          <t>concecpt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>During</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Dauring his first 100 days as president, Roosevelt spearheaded unprecedented federal legislation, initiated the program to implement the New Deal, build the New Deal coalition, and realign American politics into the Fifth Party System.</t>
+          <t>Ancient Egyptian law, dating as far back as 3000 BC, was based on the concecpt of Ma'at, and was characterised by tradition, rhetorical speech, social equality and impartiality.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>During his first 100 days as president, Roosevelt spearheaded unprecedented federal legislation, initiated the program to implement the New Deal, build the New Deal coalition, and realign American politics into the Fifth Party System.</t>
+          <t>Ancient Egyptian law, dating as far back as 3000 BC, was based on the concept of Ma'at, and was characterised by tradition, rhetorical speech, social equality and impartiality.</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Enbglish</t>
+          <t>centuary</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>century</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>It grew rapidly from 1167, when Henry II prohibited Enbglish students from attending the University of Paris.</t>
+          <t>Modern jurisprudence began in the 18th centuary and was based on the first principles of natural law, civil law, and the law of nations.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>It grew rapidly from 1167, when Henry II prohibited English students from attending the University of Paris.</t>
+          <t>Modern jurisprudence began in the 18th century and was based on the first principles of natural law, civil law, and the law of nations.</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3507,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>souath</t>
+          <t>ethicaal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>ethical</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The Hayasa, who had been in conflict with the Central-Anatolian Hittites in the 14th century BC, are believed to have lived in the area souath of Trabzon.</t>
+          <t>Rights are legal, social, or ethical principles of freedom or entitlement; that is, rights are the fundamental normative rules about what is allowed of people or owed to people according to some legal system, social convention, or ethicaal theory.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The Hayasa, who had been in conflict with the Central-Anatolian Hittites in the 14th century BC, are believed to have lived in the area south of Trabzon.</t>
+          <t>Rights are legal, social, or ethical principles of freedom or entitlement; that is, rights are the fundamental normative rules about what is allowed of people or owed to people according to some legal system, social convention, or ethical theory.</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>descriabe</t>
+          <t>patienbt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>patient</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Historically associated with right-wing politics, the term has been used to descriabe a wide range of views.</t>
+          <t>Although annual medical examinations are a routine practice in several countries, examinations performed on an asymptomatic patienbt are poorly supported by scientific evidence in the majority of the population.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Historically associated with right-wing politics, the term has been used to describe a wide range of views.</t>
+          <t>Although annual medical examinations are a routine practice in several countries, examinations performed on an asymptomatic patient are poorly supported by scientific evidence in the majority of the population.</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>laayoffs</t>
+          <t>sincce</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>layoffs</t>
+          <t>since</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Trump began his second presidency by initiating mass laayoffs of federal workers.</t>
+          <t>Britain has been continuously inhabited sincce the Neolithic.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Trump began his second presidency by initiating mass layoffs of federal workers.</t>
+          <t>Britain has been continuously inhabited since the Neolithic.</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Olycmpic</t>
+          <t>baronze</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Olympic</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>They prepared perfectly, raced superbly and won the Olycmpic gold.</t>
+          <t>They won the baronze medal.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>They prepared perfectly, raced superbly and won the Olympic gold.</t>
+          <t>They won the bronze medal.</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>possesseds</t>
+          <t>pobwers</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>possesses</t>
+          <t>powers</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>As the leader of the nation with the largest economy by nominal GDP, the president possesseds significant domestic and international hard and soft power.</t>
+          <t>Though the ceremonial powers of the office were largely identical to those in the current Constitution, the pobwers of the 1954 office differed from those of the current office in two areas: military and governmental.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>As the leader of the nation with the largest economy by nominal GDP, the president possesses significant domestic and international hard and soft power.</t>
+          <t>Though the ceremonial powers of the office were largely identical to those in the current Constitution, the powers of the 1954 office differed from those of the current office in two areas: military and governmental.</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3642,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>waestern</t>
+          <t>traditiobn</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>tradition</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Among these was Nathuram Godse, a militant Hindu nationalist from Pune, waestern India, who assassinated Gandhi by firing three bullets into his chest at an interfaith prayer meeting in Delhi on 30 January 1948.</t>
+          <t>The medieval natural law traditiobn was heavily influenced by the writings of St Paul's early Christian thinkers such as St Hilary of Poitiers, St Ambrose, and St Augustine.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Among these was Nathuram Godse, a militant Hindu nationalist from Pune, western India, who assassinated Gandhi by firing three bullets into his chest at an interfaith prayer meeting in Delhi on 30 January 1948.</t>
+          <t>The medieval natural law tradition was heavily influenced by the writings of St Paul's early Christian thinkers such as St Hilary of Poitiers, St Ambrose, and St Augustine.</t>
         </is>
       </c>
     </row>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>animcal</t>
+          <t>rankiengs</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>rankings</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>McDonald's has been criticized for its foods' nutrition, animcal welfare and low worker wages.</t>
+          <t>Its influence, wealth, and rankiengs have made it one of the most prestigious universities in the world.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>McDonald's has been criticized for its foods' nutrition, animal welfare and low worker wages.</t>
+          <t>Its influence, wealth, and rankings have made it one of the most prestigious universities in the world.</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>raesults</t>
+          <t>becomaing</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>becoming</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Psephology is the study of raesults and other statistics relating to elections (especially with a view to predicting future results).</t>
+          <t>Lincoln won the 1860 presidential election, becomaing the first Republican president.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Psephology is the study of results and other statistics relating to elections (especially with a view to predicting future results).</t>
+          <t>Lincoln won the 1860 presidential election, becoming the first Republican president.</t>
         </is>
       </c>
     </row>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>officdial</t>
+          <t>rembaining</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>remaining</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Theodosius I (r. 379–395) made Christianity the state religion and Greek gradually replaced Latin for officdial use.</t>
+          <t>In declining health, Churchill resigned in 1955, rembaining an MP until 1964.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Theodosius I (r. 379–395) made Christianity the state religion and Greek gradually replaced Latin for official use.</t>
+          <t>In declining health, Churchill resigned in 1955, remaining an MP until 1964.</t>
         </is>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>throaugh</t>
+          <t>bmilitary</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>military</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Additionally, the new Addis Ababa-Djibouti Railway runs throaugh Adama.</t>
+          <t>Similarly, bmilitary sanctions can range from carefully targeted military strikes to degrade a nation's conventional or non-conventional capabilities, to the less aggressive form of an arms embargo to cut off supplies of arms or dual-use items.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Additionally, the new Addis Ababa-Djibouti Railway runs through Adama.</t>
+          <t>Similarly, military sanctions can range from carefully targeted military strikes to degrade a nation's conventional or non-conventional capabilities, to the less aggressive form of an arms embargo to cut off supplies of arms or dual-use items.</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3777,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Overseeds</t>
+          <t>interstatde</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oversees</t>
+          <t>interstate</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The secretary-general of the United Nations (UNSG or UNSECGEN) is the Head of International Organization of the United Nations who Overseeds the United Nations Secretariat, one of the six principal organs of the United Nations.</t>
+          <t>He won the interstatde championship for Tasmania in 1993.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>The secretary-general of the United Nations (UNSG or UNSECGEN) is the Head of International Organization of the United Nations who Oversees the United Nations Secretariat, one of the six principal organs of the United Nations.</t>
+          <t>He won the interstate championship for Tasmania in 1993.</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>bebtween</t>
+          <t>createed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>created</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Shakespeare produced most of his known works bebtween 1589 and 1613.</t>
+          <t>It is operated by the Istituto di Radioastronomia di Bologna (Institute for Radio Astronomy of Bologna), createed by the CNR (National association for Research) and now part of the INAF and there is an identical one in Noto, Sicily.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Shakespeare produced most of his known works between 1589 and 1613.</t>
+          <t>It is operated by the Istituto di Radioastronomia di Bologna (Institute for Radio Astronomy of Bologna), created by the CNR (National association for Research) and now part of the INAF and there is an identical one in Noto, Sicily.</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>origainated</t>
+          <t>judbge</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>originated</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The founding of the university, however, mostly origainated with an incident at the University of Oxford during which three Oxford scholars, following the death of a local woman, were hanged by the town's secular authorities.</t>
+          <t>Codifiers and architects of Early Modern criminal law were the German jurist Benedikt Carpzov (1595–1666), professor of law in Leipzig, and two Italians, the Roman judbge and lawyer Prospero Farinacci (1544–1618) and the Piedmontese lawyer and statesman Giulio Claro (1525–1575).</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The founding of the university, however, mostly originated with an incident at the University of Oxford during which three Oxford scholars, following the death of a local woman, were hanged by the town's secular authorities.</t>
+          <t>Codifiers and architects of Early Modern criminal law were the German jurist Benedikt Carpzov (1595–1666), professor of law in Leipzig, and two Italians, the Roman judge and lawyer Prospero Farinacci (1544–1618) and the Piedmontese lawyer and statesman Giulio Claro (1525–1575).</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nationadl</t>
+          <t>cgroundbreaking</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>groundbreaking</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>In 1796, he commanded a military campaign against the Austrians and their Italian allies in the War of the First Coalition, scoring decisive victories and becoming a nationadl hero.</t>
+          <t>In 1905, sometimes described as his annus mirabilis (miracle year), he published four cgroundbreaking papers.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>In 1796, he commanded a military campaign against the Austrians and their Italian allies in the War of the First Coalition, scoring decisive victories and becoming a national hero.</t>
+          <t>In 1905, sometimes described as his annus mirabilis (miracle year), he published four groundbreaking papers.</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Moddern</t>
+          <t>terems</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Modern</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Both in Pontic Greek and Moddern Greek, it is called Τραπεζούντα (Trapezounta).</t>
+          <t>Social media platforms frequently use content moderation to filter or remove user-generated content that is deemed against the terems of service, even if that content is not illegal.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Both in Pontic Greek and Modern Greek, it is called Τραπεζούντα (Trapezounta).</t>
+          <t>Social media platforms frequently use content moderation to filter or remove user-generated content that is deemed against the terms of service, even if that content is not illegal.</t>
         </is>
       </c>
     </row>
@@ -3912,22 +3912,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ademos</t>
+          <t>drivibng</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>demos</t>
+          <t>driving</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Miller's ademos gained the attention of M.I.A.</t>
+          <t>Earth's atmosphere now has roughly 50% more carbon dioxide, the main gas drivibng global warming, than it did at the end of the pre-industrial era, reaching levels not seen for millions of years.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Miller's demos gained the attention of M.I.A.</t>
+          <t>Earth's atmosphere now has roughly 50% more carbon dioxide, the main gas driving global warming, than it did at the end of the pre-industrial era, reaching levels not seen for millions of years.</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>partiecipated</t>
+          <t>unifiaed</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>unified</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Naguib resigned as president in November 1954, following a severe rift with the younger military officers who had partiecipated with him in the revolution.</t>
+          <t>Kings became the heads of centralised nation-states, reducing crime and violence but making the ideal of a unifiaed Christendom more distant.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Naguib resigned as president in November 1954, following a severe rift with the younger military officers who had participated with him in the revolution.</t>
+          <t>Kings became the heads of centralised nation-states, reducing crime and violence but making the ideal of a unified Christendom more distant.</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>evolutionarey</t>
+          <t>Adngeles</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>evolutionary</t>
+          <t>Angeles</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Charles Robert Darwin ( DAR-win; 12 February 1809 – 19 April 1882) was an English naturalist, geologist, and biologist, widely known for his contributions to evolutionarey biology.</t>
+          <t>Whitley shared his plans for the new town with General Harrison Gray Otis, publisher of the Los Adngeles Times, and Ivar Weid, a prominent businessman in the area.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Charles Robert Darwin ( DAR-win; 12 February 1809 – 19 April 1882) was an English naturalist, geologist, and biologist, widely known for his contributions to evolutionary biology.</t>
+          <t>Whitley shared his plans for the new town with General Harrison Gray Otis, publisher of the Los Angeles Times, and Ivar Weid, a prominent businessman in the area.</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>researcheers</t>
+          <t>betweden</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>between</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>These consist of particular traits or capabilities that researcheers expect an intelligent system to display.</t>
+          <t>Numerous disputes betweden the UK and the colony led to the Mau Mau revolution, which began in 1952, and the declaration of Kenya's independence in 1963.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>These consist of particular traits or capabilities that researchers expect an intelligent system to display.</t>
+          <t>Numerous disputes between the UK and the colony led to the Mau Mau revolution, which began in 1952, and the declaration of Kenya's independence in 1963.</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4020,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>arequire</t>
+          <t>perimary</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Treaties such as the Geneva Conventions arequire national law to conform to treaty provisions.</t>
+          <t>These are normally performed by a pediatrician, family practice physician, a physical therapist, physician assistant, a certified nurse practitioner or other perimary care provider.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Treaties such as the Geneva Conventions require national law to conform to treaty provisions.</t>
+          <t>These are normally performed by a pediatrician, family practice physician, a physical therapist, physician assistant, a certified nurse practitioner or other primary care provider.</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>reantal</t>
+          <t>conquerded</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>rental</t>
+          <t>conquered</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>When the CD arrived intact, they decided to enter the $16 billion Home-video sales and reantal industry.</t>
+          <t>Attalia was soon conquerded by the Romans.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>When the CD arrived intact, they decided to enter the $16 billion Home-video sales and rental industry.</t>
+          <t>Attalia was soon conquered by the Romans.</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>excldusive</t>
+          <t>prbactice</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>exclusive</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Freedom of the press gives the printer or publisher excldusive control over what the publisher chooses to publish, including the right to refuse to print anything for any reason.</t>
+          <t>While the emergence of the Soviet Union as the first nominally Marxist-Leninist state led to socialism's association with the Soviet economic model, several scholars argue that in prbactice this model functioned as a form of state capitalism.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Freedom of the press gives the printer or publisher exclusive control over what the publisher chooses to publish, including the right to refuse to print anything for any reason.</t>
+          <t>While the emergence of the Soviet Union as the first nominally Marxist-Leninist state led to socialism's association with the Soviet economic model, several scholars argue that in practice this model functioned as a form of state capitalism.</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>reasearch</t>
+          <t>pchilosophy</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>philosophy</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Even humans rarely use the step-by-step deduction that early AI reasearch could model.</t>
+          <t>Major branches of pchilosophy are epistemology, ethics, logic, and metaphysics.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Even humans rarely use the step-by-step deduction that early AI research could model.</t>
+          <t>Major branches of philosophy are epistemology, ethics, logic, and metaphysics.</t>
         </is>
       </c>
     </row>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>dartwork</t>
+          <t>officde</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>artwork</t>
+          <t>office</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>They can be discrete and self-contained or combine and interweave with other art forms, such as combining dartwork with the written word in comics.</t>
+          <t>The current holder of the officde Christian Stocker was sworn in on 3 March 2025 as chancellor.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>They can be discrete and self-contained or combine and interweave with other art forms, such as combining artwork with the written word in comics.</t>
+          <t>The current holder of the office Christian Stocker was sworn in on 3 March 2025 as chancellor.</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>waorld</t>
+          <t>unbique</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>It is the largest and best-known development bank in the waorld and an observer at the United Nations Development Group.</t>
+          <t>The Supreme State Conference was also unbique to the 1954 Constitution.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>It is the largest and best-known development bank in the world and an observer at the United Nations Development Group.</t>
+          <t>The Supreme State Conference was also unique to the 1954 Constitution.</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>elabourers</t>
+          <t>seerved</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>labourers</t>
+          <t>served</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>In 1915, aged 45, he returned to India and soon set about organising peasants, farmers, and urban elabourers to protest against discrimination and excessive land tax.</t>
+          <t>Twenty-nine people have seerved as chancellor.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>In 1915, aged 45, he returned to India and soon set about organising peasants, farmers, and urban labourers to protest against discrimination and excessive land tax.</t>
+          <t>Twenty-nine people have served as chancellor.</t>
         </is>
       </c>
     </row>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Diplomactic</t>
+          <t>ethroughout</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Diplomatic</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Diplomactic sanctions – the reduction or removal of diplomatic ties, such as embassies.</t>
+          <t>Elections were used as early in history as ancient Greece and ancient Rome, and ethroughout the Medieval period to select rulers such as the Holy Roman Emperor (see imperial election) and the pope (see papal election).</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Diplomatic sanctions – the reduction or removal of diplomatic ties, such as embassies.</t>
+          <t>Elections were used as early in history as ancient Greece and ancient Rome, and throughout the Medieval period to select rulers such as the Holy Roman Emperor (see imperial election) and the pope (see papal election).</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>exclduded</t>
+          <t>blocek</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>excluded</t>
+          <t>block</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>The 2002 elections saw every party represented in the previous parliament ejected from the chamber and parties representing 46.3% of the voter turnout were exclduded from being represented in parliament.</t>
+          <t>Economic sanctions can range from trade barriers, tariffs, and restrictions on financial transactions to a full naval blockade of the target's ports in an effort to blocek imported goods.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>The 2002 elections saw every party represented in the previous parliament ejected from the chamber and parties representing 46.3% of the voter turnout were excluded from being represented in parliament.</t>
+          <t>Economic sanctions can range from trade barriers, tariffs, and restrictions on financial transactions to a full naval blockade of the target's ports in an effort to block imported goods.</t>
         </is>
       </c>
     </row>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>centeury</t>
+          <t>Fribedrich</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>Friedrich</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>The term globalization first appeared in the early 20th centeury (supplanting an earlier French term mondialisation).</t>
+          <t>In 1848, Karl Marx and Fribedrich Engels offered a new definition of communism in The Communist Manifesto.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The term globalization first appeared in the early 20th century (supplanting an earlier French term mondialisation).</t>
+          <t>In 1848, Karl Marx and Friedrich Engels offered a new definition of communism in The Communist Manifesto.</t>
         </is>
       </c>
     </row>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>partldy</t>
+          <t>leadeer</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>partly</t>
+          <t>leader</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>This partldy reflected Germany's status as a rising power in the late nineteenth century.</t>
+          <t>In case of a coalition cabinet, the chancellor commonly is the leadeer of the party most represented in the National Council, with the leader of the party able to grant a majority, usually serving as the vice chancellor.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>This partly reflected Germany's status as a rising power in the late nineteenth century.</t>
+          <t>In case of a coalition cabinet, the chancellor commonly is the leader of the party most represented in the National Council, with the leader of the party able to grant a majority, usually serving as the vice chancellor.</t>
         </is>
       </c>
     </row>
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Eaarth</t>
+          <t>cbompany</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>company</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The ISS was originally intended to be a laboratory, observatory, and factory while providing transportation, maintenance, and a low Eaarth orbit staging base for possible future missions to the Moon, Mars, and asteroids.</t>
+          <t>Whitley's cbompany developed and sold one of the early residential areas, the Ocean View Tract.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The ISS was originally intended to be a laboratory, observatory, and factory while providing transportation, maintenance, and a low Earth orbit staging base for possible future missions to the Moon, Mars, and asteroids.</t>
+          <t>Whitley's company developed and sold one of the early residential areas, the Ocean View Tract.</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>cFriedrich</t>
+          <t>opinaions</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Friedrich</t>
+          <t>opinions</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>By the late 19th century, after the work of Karl Marx and his collaborator cFriedrich Engels, socialism had come to signify anti-capitalism and advocacy for a post-capitalist system based on some form of social ownership of the means of production.</t>
+          <t>Freedom of speech is a principle that supports the freedom of an individual or a community to articulate their opinaions and ideas without fear of retaliation, censorship, or legal sanction.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>By the late 19th century, after the work of Karl Marx and his collaborator Friedrich Engels, socialism had come to signify anti-capitalism and advocacy for a post-capitalist system based on some form of social ownership of the means of production.</t>
+          <t>Freedom of speech is a principle that supports the freedom of an individual or a community to articulate their opinions and ideas without fear of retaliation, censorship, or legal sanction.</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>anonviolent</t>
+          <t>managemcent</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nonviolent</t>
+          <t>management</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>He oversaw the 1955 Montgomery bus boycott and was the first president of the Southern Christian Leadership Conference (SCLC), leading the unsuccessful Albany Movement in Albany, Georgia, and helping organize anonviolent 1963 protests in Birmingham, Alabama.</t>
+          <t>For example, a loan to improve coastal environmental managemcent may be linked to the development of new environmental institutions at national and local levels and the implementation of new regulations to limit pollution.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>He oversaw the 1955 Montgomery bus boycott and was the first president of the Southern Christian Leadership Conference (SCLC), leading the unsuccessful Albany Movement in Albany, Georgia, and helping organize nonviolent 1963 protests in Birmingham, Alabama.</t>
+          <t>For example, a loan to improve coastal environmental management may be linked to the development of new environmental institutions at national and local levels and the implementation of new regulations to limit pollution.</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>religbion</t>
+          <t>economdic</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>religion</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>But a subtle shift took place in the way that intellectuals approached religbion that was reflected in many other areas of cultural life.</t>
+          <t>Ideologically an adherent to economdic liberalism and imperialism, he was for most of his career a member of the Conservative Party, which he led from 1940 to 1955.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>But a subtle shift took place in the way that intellectuals approached religion that was reflected in many other areas of cultural life.</t>
+          <t>Ideologically an adherent to economic liberalism and imperialism, he was for most of his career a member of the Conservative Party, which he led from 1940 to 1955.</t>
         </is>
       </c>
     </row>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Aradbic</t>
+          <t>saensitivity</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>sensitivity</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Osman's name in turn was the Turkish form of the Aradbic name ʿUthmān (عثمان).</t>
+          <t>As both a means of developing capacities of attention and saensitivity and ends in themselves (art for art's sake), the arts can be a form of response to the world.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Osman's name in turn was the Turkish form of the Arabic name ʿUthmān (عثمان).</t>
+          <t>As both a means of developing capacities of attention and sensitivity and ends in themselves (art for art's sake), the arts can be a form of response to the world.</t>
         </is>
       </c>
     </row>
@@ -4452,22 +4452,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>modearn</t>
+          <t>Refaerred</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>Referred</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Following the empire's fall, early modearn scholars referred to it by many names, including the "Eastern Empire", the "Low Empire", the "Late Empire", the "Empire of the Greeks", "Empire of Constantinople", and "Roman Empire".</t>
+          <t>Refaerred to as the "King of Rock and Roll", he is widely regarded as one of the most culturally significant figures of the 20th century.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Following the empire's fall, early modern scholars referred to it by many names, including the "Eastern Empire", the "Low Empire", the "Late Empire", the "Empire of the Greeks", "Empire of Constantinople", and "Roman Empire".</t>
+          <t>Referred to as the "King of Rock and Roll", he is widely regarded as one of the most culturally significant figures of the 20th century.</t>
         </is>
       </c>
     </row>
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Secocnd</t>
+          <t>procesbs</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Key events preceding the war included Japan's invasion of Manchuria in 1931, the Spanish Civil War, the outbreak of the Secocnd Sino-Japanese War in 1937, and Germany's annexations of Austria and the Sudetenland.</t>
+          <t>Electoral reform describes the procesbs of introducing fair electoral systems where they are not in place, or improving the fairness or effectiveness of existing systems.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Key events preceding the war included Japan's invasion of Manchuria in 1931, the Spanish Civil War, the outbreak of the Second Sino-Japanese War in 1937, and Germany's annexations of Austria and the Sudetenland.</t>
+          <t>Electoral reform describes the process of introducing fair electoral systems where they are not in place, or improving the fairness or effectiveness of existing systems.</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>levecl</t>
+          <t>peaople</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>people</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The levecl of responsibility ranged from enacting by-laws about tolls up to the death penalty.</t>
+          <t>This enabled peaople to specialize in non-agricultural activities.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The level of responsibility ranged from enacting by-laws about tolls up to the death penalty.</t>
+          <t>This enabled people to specialize in non-agricultural activities.</t>
         </is>
       </c>
     </row>
@@ -4533,22 +4533,238 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>lcanguage</t>
+          <t>variobus</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>various</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Some distinctive characteristics of the Turkish lcanguage are vowel harmony and extensive agglutination.</t>
+          <t>The service primarily distributes original and acquired films and television shows from variobus genres.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Some distinctive characteristics of the Turkish language are vowel harmony and extensive agglutination.</t>
+          <t>The service primarily distributes original and acquired films and television shows from various genres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>yeards</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Similarly, traditional Chinese law gave way to westernisation towards the final yeards of the Qing dynasty in the form of six private law codes based mainly on the Japanese model of German law.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Similarly, traditional Chinese law gave way to westernisation towards the final years of the Qing dynasty in the form of six private law codes based mainly on the Japanese model of German law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>vocwel</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vowel</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>The theory was based mostly on the fact these languages share three features: agglutination, vocwel harmony and lack of grammatical gender.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>The theory was based mostly on the fact these languages share three features: agglutination, vowel harmony and lack of grammatical gender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>unticl</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>until</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>From this date unticl 2014, all presidents except Kenan Evren were elected by the Turkish Grand National Assembly.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>From this date until 2014, all presidents except Kenan Evren were elected by the Turkish Grand National Assembly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>earaly</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Following the empire's fall, earaly modern scholars referred to it by many names, including the "Eastern Empire", the "Low Empire", the "Late Empire", the "Empire of the Greeks", "Empire of Constantinople", and "Roman Empire".</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Following the empire's fall, early modern scholars referred to it by many names, including the "Eastern Empire", the "Low Empire", the "Late Empire", the "Empire of the Greeks", "Empire of Constantinople", and "Roman Empire".</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>radciates</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>radiates</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>These gases absorb some of the heat that the Earth radciates after it warms from sunlight, warming the lower atmosphere.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>These gases absorb some of the heat that the Earth radiates after it warms from sunlight, warming the lower atmosphere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>currentcly</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Antalya is currentcly the fourth-most visited city in the world, trailing behind only Istanbul, London, and Dubai, attracting more than 16.5 million foreign visitors in 2023.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Antalya is currently the fourth-most visited city in the world, trailing behind only Istanbul, London, and Dubai, attracting more than 16.5 million foreign visitors in 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Novemdber</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>The development of a campus-wide face book had previously been stalled by privacy concerns, many of which became prominent in Novemdber 2003 when Zuckerberg was accused of breaching security and violating copyrights and individual privacy.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>The development of a campus-wide face book had previously been stalled by privacy concerns, many of which became prominent in November 2003 when Zuckerberg was accused of breaching security and violating copyrights and individual privacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>insertion</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>bstate</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>The office of bstate chairman (the original English translation) was first established under the 1954 Constitution.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>The office of state chairman (the original English translation) was first established under the 1954 Constitution.</t>
         </is>
       </c>
     </row>
